--- a/po_analysis_by_asin/B0D2JFYR6R_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2JFYR6R_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>60</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>40</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>20</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>40</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>20</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>100</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>20</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>40</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>40</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>20</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>20</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>20</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>180</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>80</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>120</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>120</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>40</v>

--- a/po_analysis_by_asin/B0D2JFYR6R_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2JFYR6R_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -597,7 +598,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -639,6 +640,369 @@
       </c>
       <c r="B6" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.88927951839608</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.91337557358571</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20.44696360881298</v>
+      </c>
+      <c r="D3" t="n">
+        <v>73.24895939288179</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>45</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.43269034653193</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.68706942944277</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.65446317914117</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.0021947159571</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18.56280946124526</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68.65721407399788</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.27748007776622</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67.37802793979188</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14.71488191843287</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65.08567891741333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>37</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.279543491554801</v>
+      </c>
+      <c r="D9" t="n">
+        <v>63.06606753122941</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.846420542955957</v>
+      </c>
+      <c r="D10" t="n">
+        <v>61.05485796819747</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.861964742644504</v>
+      </c>
+      <c r="D11" t="n">
+        <v>56.37743057541437</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4249885585359331</v>
+      </c>
+      <c r="D12" t="n">
+        <v>56.28714841310207</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.625326860390272</v>
+      </c>
+      <c r="D13" t="n">
+        <v>55.27555547911142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.778216038854471</v>
+      </c>
+      <c r="D14" t="n">
+        <v>52.29790704025378</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>26</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.7851454704348653</v>
+      </c>
+      <c r="D15" t="n">
+        <v>52.99899002941443</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.3202608792362403</v>
+      </c>
+      <c r="D16" t="n">
+        <v>51.07191801089053</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.196417863881591</v>
+      </c>
+      <c r="D17" t="n">
+        <v>49.95744044156701</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.356312004422084</v>
+      </c>
+      <c r="D18" t="n">
+        <v>48.64378114165004</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-6.086849100877183</v>
+      </c>
+      <c r="D19" t="n">
+        <v>47.82238992702192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-7.026191348365249</v>
+      </c>
+      <c r="D20" t="n">
+        <v>46.29386769872515</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-8.221137270757396</v>
+      </c>
+      <c r="D21" t="n">
+        <v>44.09010068048848</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-9.138575865780702</v>
+      </c>
+      <c r="D22" t="n">
+        <v>42.39677276041246</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-10.87732054858501</v>
+      </c>
+      <c r="D23" t="n">
+        <v>40.5369800334643</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-12.17617469653876</v>
+      </c>
+      <c r="D24" t="n">
+        <v>42.58958287622617</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D2JFYR6R_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2JFYR6R_po_data.xlsx
@@ -653,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,16 +672,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -690,12 +680,6 @@
       <c r="B2" t="n">
         <v>48</v>
       </c>
-      <c r="C2" t="n">
-        <v>22.88927951839608</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.91337557358571</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -704,12 +688,6 @@
       <c r="B3" t="n">
         <v>47</v>
       </c>
-      <c r="C3" t="n">
-        <v>20.44696360881298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>73.24895939288179</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -718,12 +696,6 @@
       <c r="B4" t="n">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
-        <v>17.43269034653193</v>
-      </c>
-      <c r="D4" t="n">
-        <v>71.68706942944277</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -732,12 +704,6 @@
       <c r="B5" t="n">
         <v>43</v>
       </c>
-      <c r="C5" t="n">
-        <v>17.65446317914117</v>
-      </c>
-      <c r="D5" t="n">
-        <v>69.0021947159571</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -746,12 +712,6 @@
       <c r="B6" t="n">
         <v>42</v>
       </c>
-      <c r="C6" t="n">
-        <v>18.56280946124526</v>
-      </c>
-      <c r="D6" t="n">
-        <v>68.65721407399788</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -760,12 +720,6 @@
       <c r="B7" t="n">
         <v>40</v>
       </c>
-      <c r="C7" t="n">
-        <v>12.27748007776622</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67.37802793979188</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -774,12 +728,6 @@
       <c r="B8" t="n">
         <v>39</v>
       </c>
-      <c r="C8" t="n">
-        <v>14.71488191843287</v>
-      </c>
-      <c r="D8" t="n">
-        <v>65.08567891741333</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -788,12 +736,6 @@
       <c r="B9" t="n">
         <v>37</v>
       </c>
-      <c r="C9" t="n">
-        <v>8.279543491554801</v>
-      </c>
-      <c r="D9" t="n">
-        <v>63.06606753122941</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -802,12 +744,6 @@
       <c r="B10" t="n">
         <v>34</v>
       </c>
-      <c r="C10" t="n">
-        <v>6.846420542955957</v>
-      </c>
-      <c r="D10" t="n">
-        <v>61.05485796819747</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -816,12 +752,6 @@
       <c r="B11" t="n">
         <v>31</v>
       </c>
-      <c r="C11" t="n">
-        <v>5.861964742644504</v>
-      </c>
-      <c r="D11" t="n">
-        <v>56.37743057541437</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -830,12 +760,6 @@
       <c r="B12" t="n">
         <v>29</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.4249885585359331</v>
-      </c>
-      <c r="D12" t="n">
-        <v>56.28714841310207</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -844,12 +768,6 @@
       <c r="B13" t="n">
         <v>28</v>
       </c>
-      <c r="C13" t="n">
-        <v>3.625326860390272</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55.27555547911142</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -858,12 +776,6 @@
       <c r="B14" t="n">
         <v>27</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.778216038854471</v>
-      </c>
-      <c r="D14" t="n">
-        <v>52.29790704025378</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -872,12 +784,6 @@
       <c r="B15" t="n">
         <v>26</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.7851454704348653</v>
-      </c>
-      <c r="D15" t="n">
-        <v>52.99899002941443</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -886,12 +792,6 @@
       <c r="B16" t="n">
         <v>24</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.3202608792362403</v>
-      </c>
-      <c r="D16" t="n">
-        <v>51.07191801089053</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -900,12 +800,6 @@
       <c r="B17" t="n">
         <v>23</v>
       </c>
-      <c r="C17" t="n">
-        <v>-2.196417863881591</v>
-      </c>
-      <c r="D17" t="n">
-        <v>49.95744044156701</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -914,12 +808,6 @@
       <c r="B18" t="n">
         <v>22</v>
       </c>
-      <c r="C18" t="n">
-        <v>-3.356312004422084</v>
-      </c>
-      <c r="D18" t="n">
-        <v>48.64378114165004</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -928,12 +816,6 @@
       <c r="B19" t="n">
         <v>21</v>
       </c>
-      <c r="C19" t="n">
-        <v>-6.086849100877183</v>
-      </c>
-      <c r="D19" t="n">
-        <v>47.82238992702192</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -942,12 +824,6 @@
       <c r="B20" t="n">
         <v>19</v>
       </c>
-      <c r="C20" t="n">
-        <v>-7.026191348365249</v>
-      </c>
-      <c r="D20" t="n">
-        <v>46.29386769872515</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -956,12 +832,6 @@
       <c r="B21" t="n">
         <v>18</v>
       </c>
-      <c r="C21" t="n">
-        <v>-8.221137270757396</v>
-      </c>
-      <c r="D21" t="n">
-        <v>44.09010068048848</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -970,12 +840,6 @@
       <c r="B22" t="n">
         <v>17</v>
       </c>
-      <c r="C22" t="n">
-        <v>-9.138575865780702</v>
-      </c>
-      <c r="D22" t="n">
-        <v>42.39677276041246</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -984,12 +848,6 @@
       <c r="B23" t="n">
         <v>16</v>
       </c>
-      <c r="C23" t="n">
-        <v>-10.87732054858501</v>
-      </c>
-      <c r="D23" t="n">
-        <v>40.5369800334643</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -997,12 +855,6 @@
       </c>
       <c r="B24" t="n">
         <v>14</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-12.17617469653876</v>
-      </c>
-      <c r="D24" t="n">
-        <v>42.58958287622617</v>
       </c>
     </row>
   </sheetData>
